--- a/周数据/《实施上线数据统计表》-周腾飞.xlsx
+++ b/周数据/《实施上线数据统计表》-周腾飞.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
   <si>
     <t xml:space="preserve">说明：
 1、立项数、上线数以及上线日期均以邮件为准；
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>第20周</t>
+  </si>
+  <si>
+    <t>第21周</t>
   </si>
   <si>
     <t>周次</t>
@@ -224,11 +227,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -358,6 +361,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -365,8 +384,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,7 +416,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -396,30 +445,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -434,23 +460,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -464,21 +475,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -487,9 +483,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -576,7 +579,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,7 +645,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,55 +681,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,7 +693,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,49 +705,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1212,16 +1215,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1231,17 +1234,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1271,15 +1263,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1295,17 +1278,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1317,10 +1320,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1329,130 +1332,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="37" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2115,7 +2118,7 @@
   <dimension ref="A1:I598"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62962962962963" defaultRowHeight="14.4"/>
@@ -2450,10 +2453,18 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="60"/>
-      <c r="B14" s="85"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="71"/>
+      <c r="B14" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="86">
+        <v>0</v>
+      </c>
+      <c r="D14" s="70">
+        <v>0</v>
+      </c>
+      <c r="E14" s="71">
+        <v>0</v>
+      </c>
       <c r="F14" s="72">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -16049,49 +16060,49 @@
   <sheetData>
     <row r="1" s="26" customFormat="1" ht="27.6" spans="1:15">
       <c r="A1" s="28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I1" s="32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J1" s="29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K1" s="29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L1" s="28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M1" s="28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N1" s="28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O1" s="28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -16102,43 +16113,43 @@
         <v>43218</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G2" s="11">
         <v>76159025</v>
       </c>
       <c r="H2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="10" t="s">
-        <v>36</v>
-      </c>
       <c r="J2" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K2" s="10">
         <v>15895896159</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N2" s="10">
         <v>18915964188</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -16149,43 +16160,43 @@
         <v>43221</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G3" s="11">
         <v>76163331</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K3" s="10">
         <v>15895896159</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N3" s="11">
         <v>18502560789</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -16196,43 +16207,43 @@
         <v>43224</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G4" s="11">
         <v>76162062</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K4" s="10">
         <v>15895896159</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N4" s="10">
         <v>15950660573</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -16243,43 +16254,43 @@
         <v>43235</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G5" s="10">
         <v>76162983</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K5" s="10">
         <v>15895896159</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N5" s="10">
         <v>18652913602</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -21340,22 +21351,22 @@
         <v>3</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -22207,50 +22218,50 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="9">
         <v>43204</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" s="9">
         <v>43221</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="2:4">

--- a/周数据/《实施上线数据统计表》-周腾飞.xlsx
+++ b/周数据/《实施上线数据统计表》-周腾飞.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950"/>
+    <workbookView windowWidth="22943" windowHeight="12311"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83">
   <si>
     <t xml:space="preserve">说明：
 1、立项数、上线数以及上线日期均以邮件为准；
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>第22周</t>
+  </si>
+  <si>
+    <t>06月</t>
+  </si>
+  <si>
+    <t>第23周</t>
   </si>
   <si>
     <t>周次</t>
@@ -260,6 +266,12 @@
   <si>
     <t>前往四季乾元七秒鱼驻店</t>
   </si>
+  <si>
+    <t>6月</t>
+  </si>
+  <si>
+    <t>前往日久料理如皋店驻店</t>
+  </si>
 </sst>
 </file>
 
@@ -267,9 +279,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="35">
@@ -395,21 +407,34 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -426,82 +451,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -523,8 +473,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -618,7 +630,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,13 +648,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,7 +666,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,19 +684,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,7 +720,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,13 +732,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,25 +750,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,19 +768,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1254,6 +1266,69 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1280,74 +1355,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1359,10 +1371,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1371,133 +1383,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="14" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1806,12 +1818,12 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2166,18 +2178,18 @@
   <dimension ref="A1:I598"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.63333333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.62962962962963" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="5.13333333333333" style="36" customWidth="1"/>
-    <col min="2" max="2" width="8.13333333333333" style="36" customWidth="1"/>
+    <col min="1" max="1" width="5.12962962962963" style="36" customWidth="1"/>
+    <col min="2" max="2" width="8.12962962962963" style="36" customWidth="1"/>
     <col min="3" max="4" width="16.25" style="37" customWidth="1"/>
     <col min="5" max="5" width="17.75" style="37" customWidth="1"/>
-    <col min="6" max="6" width="17.8833333333333" style="38" customWidth="1"/>
-    <col min="7" max="8" width="17.8833333333333" style="39" customWidth="1"/>
-    <col min="9" max="9" width="18.6333333333333" style="39" customWidth="1"/>
+    <col min="6" max="6" width="17.8796296296296" style="38" customWidth="1"/>
+    <col min="7" max="8" width="17.8796296296296" style="39" customWidth="1"/>
+    <col min="9" max="9" width="18.6296296296296" style="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="60" customHeight="1" spans="1:9">
@@ -2206,7 +2218,7 @@
       <c r="H2" s="47"/>
       <c r="I2" s="95"/>
     </row>
-    <row r="3" ht="14.25" spans="1:9">
+    <row r="3" ht="15.6" spans="1:9">
       <c r="A3" s="48" t="s">
         <v>2</v>
       </c>
@@ -2233,7 +2245,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:9">
+    <row r="4" ht="15.15" spans="1:9">
       <c r="A4" s="55"/>
       <c r="B4" s="56"/>
       <c r="C4" s="57"/>
@@ -2381,7 +2393,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:9">
+    <row r="10" ht="15.15" spans="1:9">
       <c r="A10" s="78"/>
       <c r="B10" s="79"/>
       <c r="C10" s="80"/>
@@ -2561,10 +2573,10 @@
         <v>0.333333333333333</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="1:9">
+    <row r="16" ht="15.15" spans="1:9">
       <c r="A16" s="78"/>
-      <c r="B16" s="90"/>
-      <c r="C16" s="91"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="90"/>
       <c r="D16" s="81"/>
       <c r="E16" s="82"/>
       <c r="F16" s="83">
@@ -2585,11 +2597,21 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="63"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="67"/>
+      <c r="A17" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="88" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="87">
+        <v>0</v>
+      </c>
+      <c r="D17" s="66">
+        <v>0</v>
+      </c>
+      <c r="E17" s="67">
+        <v>0</v>
+      </c>
       <c r="F17" s="68">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2699,10 +2721,10 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" ht="14.25" spans="1:9">
+    <row r="22" ht="15.15" spans="1:9">
       <c r="A22" s="78"/>
-      <c r="B22" s="90"/>
-      <c r="C22" s="91"/>
+      <c r="B22" s="91"/>
+      <c r="C22" s="90"/>
       <c r="D22" s="81"/>
       <c r="E22" s="82"/>
       <c r="F22" s="83">
@@ -2837,9 +2859,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" ht="14.25" spans="1:9">
+    <row r="28" ht="15.15" spans="1:9">
       <c r="A28" s="78"/>
-      <c r="B28" s="90"/>
+      <c r="B28" s="91"/>
       <c r="C28" s="80"/>
       <c r="D28" s="81"/>
       <c r="E28" s="82"/>
@@ -2975,9 +2997,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" ht="14.25" spans="1:9">
+    <row r="34" ht="15.15" spans="1:9">
       <c r="A34" s="78"/>
-      <c r="B34" s="90"/>
+      <c r="B34" s="91"/>
       <c r="C34" s="80"/>
       <c r="D34" s="81"/>
       <c r="E34" s="82"/>
@@ -3113,9 +3135,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" ht="14.25" spans="1:9">
+    <row r="40" ht="15.15" spans="1:9">
       <c r="A40" s="78"/>
-      <c r="B40" s="90"/>
+      <c r="B40" s="91"/>
       <c r="C40" s="80"/>
       <c r="D40" s="81"/>
       <c r="E40" s="82"/>
@@ -3251,9 +3273,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" ht="14.25" spans="1:9">
+    <row r="46" ht="15.15" spans="1:9">
       <c r="A46" s="78"/>
-      <c r="B46" s="90"/>
+      <c r="B46" s="91"/>
       <c r="C46" s="80"/>
       <c r="D46" s="81"/>
       <c r="E46" s="82"/>
@@ -3389,9 +3411,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" ht="14.25" spans="1:9">
+    <row r="52" ht="15.15" spans="1:9">
       <c r="A52" s="78"/>
-      <c r="B52" s="90"/>
+      <c r="B52" s="91"/>
       <c r="C52" s="80"/>
       <c r="D52" s="81"/>
       <c r="E52" s="82"/>
@@ -3527,9 +3549,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" ht="14.25" spans="1:9">
+    <row r="58" ht="15.15" spans="1:9">
       <c r="A58" s="78"/>
-      <c r="B58" s="90"/>
+      <c r="B58" s="91"/>
       <c r="C58" s="80"/>
       <c r="D58" s="81"/>
       <c r="E58" s="82"/>
@@ -3665,9 +3687,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="64" ht="14.25" spans="1:9">
+    <row r="64" ht="15.15" spans="1:9">
       <c r="A64" s="78"/>
-      <c r="B64" s="90"/>
+      <c r="B64" s="91"/>
       <c r="C64" s="80"/>
       <c r="D64" s="81"/>
       <c r="E64" s="82"/>
@@ -3803,9 +3825,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="70" ht="14.25" spans="1:9">
+    <row r="70" ht="15.15" spans="1:9">
       <c r="A70" s="78"/>
-      <c r="B70" s="90"/>
+      <c r="B70" s="91"/>
       <c r="C70" s="80"/>
       <c r="D70" s="81"/>
       <c r="E70" s="82"/>
@@ -3941,9 +3963,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="76" ht="14.25" spans="1:9">
+    <row r="76" ht="15.15" spans="1:9">
       <c r="A76" s="78"/>
-      <c r="B76" s="90"/>
+      <c r="B76" s="91"/>
       <c r="C76" s="80"/>
       <c r="D76" s="81"/>
       <c r="E76" s="82"/>
@@ -4079,9 +4101,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="82" ht="14.25" spans="1:9">
+    <row r="82" ht="15.15" spans="1:9">
       <c r="A82" s="78"/>
-      <c r="B82" s="90"/>
+      <c r="B82" s="91"/>
       <c r="C82" s="80"/>
       <c r="D82" s="81"/>
       <c r="E82" s="82"/>
@@ -4217,9 +4239,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="88" ht="14.25" spans="1:9">
+    <row r="88" ht="15.15" spans="1:9">
       <c r="A88" s="78"/>
-      <c r="B88" s="90"/>
+      <c r="B88" s="91"/>
       <c r="C88" s="80"/>
       <c r="D88" s="81"/>
       <c r="E88" s="82"/>
@@ -4355,9 +4377,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="94" ht="14.25" spans="1:9">
+    <row r="94" ht="15.15" spans="1:9">
       <c r="A94" s="78"/>
-      <c r="B94" s="90"/>
+      <c r="B94" s="91"/>
       <c r="C94" s="80"/>
       <c r="D94" s="81"/>
       <c r="E94" s="82"/>
@@ -4493,9 +4515,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="100" ht="14.25" spans="1:9">
+    <row r="100" ht="15.15" spans="1:9">
       <c r="A100" s="78"/>
-      <c r="B100" s="90"/>
+      <c r="B100" s="91"/>
       <c r="C100" s="80"/>
       <c r="D100" s="81"/>
       <c r="E100" s="82"/>
@@ -4631,9 +4653,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="106" ht="14.25" spans="1:9">
+    <row r="106" ht="15.15" spans="1:9">
       <c r="A106" s="78"/>
-      <c r="B106" s="90"/>
+      <c r="B106" s="91"/>
       <c r="C106" s="80"/>
       <c r="D106" s="81"/>
       <c r="E106" s="82"/>
@@ -4769,9 +4791,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="112" ht="14.25" spans="1:9">
+    <row r="112" ht="15.15" spans="1:9">
       <c r="A112" s="78"/>
-      <c r="B112" s="90"/>
+      <c r="B112" s="91"/>
       <c r="C112" s="80"/>
       <c r="D112" s="81"/>
       <c r="E112" s="82"/>
@@ -4907,9 +4929,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="118" ht="14.25" spans="1:9">
+    <row r="118" ht="15.15" spans="1:9">
       <c r="A118" s="78"/>
-      <c r="B118" s="90"/>
+      <c r="B118" s="91"/>
       <c r="C118" s="80"/>
       <c r="D118" s="81"/>
       <c r="E118" s="82"/>
@@ -5045,9 +5067,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="124" ht="14.25" spans="1:9">
+    <row r="124" ht="15.15" spans="1:9">
       <c r="A124" s="78"/>
-      <c r="B124" s="90"/>
+      <c r="B124" s="91"/>
       <c r="C124" s="80"/>
       <c r="D124" s="81"/>
       <c r="E124" s="82"/>
@@ -5183,9 +5205,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="130" ht="14.25" spans="1:9">
+    <row r="130" ht="15.15" spans="1:9">
       <c r="A130" s="78"/>
-      <c r="B130" s="90"/>
+      <c r="B130" s="91"/>
       <c r="C130" s="80"/>
       <c r="D130" s="81"/>
       <c r="E130" s="82"/>
@@ -5321,9 +5343,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="136" ht="14.25" spans="1:9">
+    <row r="136" ht="15.15" spans="1:9">
       <c r="A136" s="78"/>
-      <c r="B136" s="90"/>
+      <c r="B136" s="91"/>
       <c r="C136" s="80"/>
       <c r="D136" s="81"/>
       <c r="E136" s="82"/>
@@ -5459,9 +5481,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="142" ht="14.25" spans="1:9">
+    <row r="142" ht="15.15" spans="1:9">
       <c r="A142" s="78"/>
-      <c r="B142" s="90"/>
+      <c r="B142" s="91"/>
       <c r="C142" s="80"/>
       <c r="D142" s="81"/>
       <c r="E142" s="82"/>
@@ -5597,9 +5619,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="148" ht="14.25" spans="1:9">
+    <row r="148" ht="15.15" spans="1:9">
       <c r="A148" s="78"/>
-      <c r="B148" s="90"/>
+      <c r="B148" s="91"/>
       <c r="C148" s="80"/>
       <c r="D148" s="81"/>
       <c r="E148" s="82"/>
@@ -5735,9 +5757,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="154" ht="14.25" spans="1:9">
+    <row r="154" ht="15.15" spans="1:9">
       <c r="A154" s="78"/>
-      <c r="B154" s="90"/>
+      <c r="B154" s="91"/>
       <c r="C154" s="80"/>
       <c r="D154" s="81"/>
       <c r="E154" s="82"/>
@@ -5873,9 +5895,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="160" ht="14.25" spans="1:9">
+    <row r="160" ht="15.15" spans="1:9">
       <c r="A160" s="78"/>
-      <c r="B160" s="90"/>
+      <c r="B160" s="91"/>
       <c r="C160" s="80"/>
       <c r="D160" s="81"/>
       <c r="E160" s="82"/>
@@ -6011,9 +6033,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="166" ht="14.25" spans="1:9">
+    <row r="166" ht="15.15" spans="1:9">
       <c r="A166" s="78"/>
-      <c r="B166" s="90"/>
+      <c r="B166" s="91"/>
       <c r="C166" s="80"/>
       <c r="D166" s="81"/>
       <c r="E166" s="82"/>
@@ -6149,9 +6171,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="172" ht="14.25" spans="1:9">
+    <row r="172" ht="15.15" spans="1:9">
       <c r="A172" s="78"/>
-      <c r="B172" s="90"/>
+      <c r="B172" s="91"/>
       <c r="C172" s="80"/>
       <c r="D172" s="81"/>
       <c r="E172" s="82"/>
@@ -6287,9 +6309,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="178" ht="14.25" spans="1:9">
+    <row r="178" ht="15.15" spans="1:9">
       <c r="A178" s="78"/>
-      <c r="B178" s="90"/>
+      <c r="B178" s="91"/>
       <c r="C178" s="80"/>
       <c r="D178" s="81"/>
       <c r="E178" s="82"/>
@@ -6425,9 +6447,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="184" ht="14.25" spans="1:9">
+    <row r="184" ht="15.15" spans="1:9">
       <c r="A184" s="78"/>
-      <c r="B184" s="90"/>
+      <c r="B184" s="91"/>
       <c r="C184" s="80"/>
       <c r="D184" s="81"/>
       <c r="E184" s="82"/>
@@ -6563,9 +6585,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="190" ht="14.25" spans="1:9">
+    <row r="190" ht="15.15" spans="1:9">
       <c r="A190" s="78"/>
-      <c r="B190" s="90"/>
+      <c r="B190" s="91"/>
       <c r="C190" s="80"/>
       <c r="D190" s="81"/>
       <c r="E190" s="82"/>
@@ -6701,9 +6723,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="196" ht="14.25" spans="1:9">
+    <row r="196" ht="15.15" spans="1:9">
       <c r="A196" s="78"/>
-      <c r="B196" s="90"/>
+      <c r="B196" s="91"/>
       <c r="C196" s="80"/>
       <c r="D196" s="81"/>
       <c r="E196" s="82"/>
@@ -6839,9 +6861,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="202" ht="14.25" spans="1:9">
+    <row r="202" ht="15.15" spans="1:9">
       <c r="A202" s="78"/>
-      <c r="B202" s="90"/>
+      <c r="B202" s="91"/>
       <c r="C202" s="80"/>
       <c r="D202" s="81"/>
       <c r="E202" s="82"/>
@@ -6977,9 +6999,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="208" ht="14.25" spans="1:9">
+    <row r="208" ht="15.15" spans="1:9">
       <c r="A208" s="78"/>
-      <c r="B208" s="90"/>
+      <c r="B208" s="91"/>
       <c r="C208" s="80"/>
       <c r="D208" s="81"/>
       <c r="E208" s="82"/>
@@ -7115,9 +7137,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="214" ht="14.25" spans="1:9">
+    <row r="214" ht="15.15" spans="1:9">
       <c r="A214" s="78"/>
-      <c r="B214" s="90"/>
+      <c r="B214" s="91"/>
       <c r="C214" s="80"/>
       <c r="D214" s="81"/>
       <c r="E214" s="82"/>
@@ -7253,9 +7275,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="220" ht="14.25" spans="1:9">
+    <row r="220" ht="15.15" spans="1:9">
       <c r="A220" s="78"/>
-      <c r="B220" s="90"/>
+      <c r="B220" s="91"/>
       <c r="C220" s="80"/>
       <c r="D220" s="81"/>
       <c r="E220" s="82"/>
@@ -7391,9 +7413,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="226" ht="14.25" spans="1:9">
+    <row r="226" ht="15.15" spans="1:9">
       <c r="A226" s="78"/>
-      <c r="B226" s="90"/>
+      <c r="B226" s="91"/>
       <c r="C226" s="80"/>
       <c r="D226" s="81"/>
       <c r="E226" s="82"/>
@@ -7529,9 +7551,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="232" ht="14.25" spans="1:9">
+    <row r="232" ht="15.15" spans="1:9">
       <c r="A232" s="78"/>
-      <c r="B232" s="90"/>
+      <c r="B232" s="91"/>
       <c r="C232" s="80"/>
       <c r="D232" s="81"/>
       <c r="E232" s="82"/>
@@ -7667,9 +7689,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="238" ht="14.25" spans="1:9">
+    <row r="238" ht="15.15" spans="1:9">
       <c r="A238" s="78"/>
-      <c r="B238" s="90"/>
+      <c r="B238" s="91"/>
       <c r="C238" s="80"/>
       <c r="D238" s="81"/>
       <c r="E238" s="82"/>
@@ -7805,9 +7827,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="244" ht="14.25" spans="1:9">
+    <row r="244" ht="15.15" spans="1:9">
       <c r="A244" s="78"/>
-      <c r="B244" s="90"/>
+      <c r="B244" s="91"/>
       <c r="C244" s="80"/>
       <c r="D244" s="81"/>
       <c r="E244" s="82"/>
@@ -7943,9 +7965,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="250" ht="14.25" spans="1:9">
+    <row r="250" ht="15.15" spans="1:9">
       <c r="A250" s="78"/>
-      <c r="B250" s="90"/>
+      <c r="B250" s="91"/>
       <c r="C250" s="80"/>
       <c r="D250" s="81"/>
       <c r="E250" s="82"/>
@@ -8081,9 +8103,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="256" ht="14.25" spans="1:9">
+    <row r="256" ht="15.15" spans="1:9">
       <c r="A256" s="78"/>
-      <c r="B256" s="90"/>
+      <c r="B256" s="91"/>
       <c r="C256" s="80"/>
       <c r="D256" s="81"/>
       <c r="E256" s="82"/>
@@ -8219,9 +8241,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="262" ht="14.25" spans="1:9">
+    <row r="262" ht="15.15" spans="1:9">
       <c r="A262" s="78"/>
-      <c r="B262" s="90"/>
+      <c r="B262" s="91"/>
       <c r="C262" s="80"/>
       <c r="D262" s="81"/>
       <c r="E262" s="82"/>
@@ -8357,9 +8379,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="268" ht="14.25" spans="1:9">
+    <row r="268" ht="15.15" spans="1:9">
       <c r="A268" s="78"/>
-      <c r="B268" s="90"/>
+      <c r="B268" s="91"/>
       <c r="C268" s="80"/>
       <c r="D268" s="81"/>
       <c r="E268" s="82"/>
@@ -8495,9 +8517,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="274" ht="14.25" spans="1:9">
+    <row r="274" ht="15.15" spans="1:9">
       <c r="A274" s="78"/>
-      <c r="B274" s="90"/>
+      <c r="B274" s="91"/>
       <c r="C274" s="80"/>
       <c r="D274" s="81"/>
       <c r="E274" s="82"/>
@@ -8633,9 +8655,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="280" ht="14.25" spans="1:9">
+    <row r="280" ht="15.15" spans="1:9">
       <c r="A280" s="78"/>
-      <c r="B280" s="90"/>
+      <c r="B280" s="91"/>
       <c r="C280" s="80"/>
       <c r="D280" s="81"/>
       <c r="E280" s="82"/>
@@ -8771,9 +8793,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="286" ht="14.25" spans="1:9">
+    <row r="286" ht="15.15" spans="1:9">
       <c r="A286" s="78"/>
-      <c r="B286" s="90"/>
+      <c r="B286" s="91"/>
       <c r="C286" s="80"/>
       <c r="D286" s="81"/>
       <c r="E286" s="82"/>
@@ -8909,9 +8931,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="292" ht="14.25" spans="1:9">
+    <row r="292" ht="15.15" spans="1:9">
       <c r="A292" s="78"/>
-      <c r="B292" s="90"/>
+      <c r="B292" s="91"/>
       <c r="C292" s="80"/>
       <c r="D292" s="81"/>
       <c r="E292" s="82"/>
@@ -9047,9 +9069,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="298" ht="14.25" spans="1:9">
+    <row r="298" ht="15.15" spans="1:9">
       <c r="A298" s="78"/>
-      <c r="B298" s="90"/>
+      <c r="B298" s="91"/>
       <c r="C298" s="80"/>
       <c r="D298" s="81"/>
       <c r="E298" s="82"/>
@@ -9185,9 +9207,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="304" ht="14.25" spans="1:9">
+    <row r="304" ht="15.15" spans="1:9">
       <c r="A304" s="78"/>
-      <c r="B304" s="90"/>
+      <c r="B304" s="91"/>
       <c r="C304" s="80"/>
       <c r="D304" s="81"/>
       <c r="E304" s="82"/>
@@ -9323,9 +9345,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="310" ht="14.25" spans="1:9">
+    <row r="310" ht="15.15" spans="1:9">
       <c r="A310" s="78"/>
-      <c r="B310" s="90"/>
+      <c r="B310" s="91"/>
       <c r="C310" s="80"/>
       <c r="D310" s="81"/>
       <c r="E310" s="82"/>
@@ -9461,9 +9483,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="316" ht="14.25" spans="1:9">
+    <row r="316" ht="15.15" spans="1:9">
       <c r="A316" s="78"/>
-      <c r="B316" s="90"/>
+      <c r="B316" s="91"/>
       <c r="C316" s="80"/>
       <c r="D316" s="81"/>
       <c r="E316" s="82"/>
@@ -9599,9 +9621,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="322" ht="14.25" spans="1:9">
+    <row r="322" ht="15.15" spans="1:9">
       <c r="A322" s="78"/>
-      <c r="B322" s="90"/>
+      <c r="B322" s="91"/>
       <c r="C322" s="80"/>
       <c r="D322" s="81"/>
       <c r="E322" s="82"/>
@@ -9737,9 +9759,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="328" ht="14.25" spans="1:9">
+    <row r="328" ht="15.15" spans="1:9">
       <c r="A328" s="78"/>
-      <c r="B328" s="90"/>
+      <c r="B328" s="91"/>
       <c r="C328" s="80"/>
       <c r="D328" s="81"/>
       <c r="E328" s="82"/>
@@ -9875,9 +9897,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="334" ht="14.25" spans="1:9">
+    <row r="334" ht="15.15" spans="1:9">
       <c r="A334" s="78"/>
-      <c r="B334" s="90"/>
+      <c r="B334" s="91"/>
       <c r="C334" s="80"/>
       <c r="D334" s="81"/>
       <c r="E334" s="82"/>
@@ -10013,9 +10035,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="340" ht="14.25" spans="1:9">
+    <row r="340" ht="15.15" spans="1:9">
       <c r="A340" s="78"/>
-      <c r="B340" s="90"/>
+      <c r="B340" s="91"/>
       <c r="C340" s="80"/>
       <c r="D340" s="81"/>
       <c r="E340" s="82"/>
@@ -10151,9 +10173,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="346" ht="14.25" spans="1:9">
+    <row r="346" ht="15.15" spans="1:9">
       <c r="A346" s="78"/>
-      <c r="B346" s="90"/>
+      <c r="B346" s="91"/>
       <c r="C346" s="80"/>
       <c r="D346" s="81"/>
       <c r="E346" s="82"/>
@@ -10289,9 +10311,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="352" ht="14.25" spans="1:9">
+    <row r="352" ht="15.15" spans="1:9">
       <c r="A352" s="78"/>
-      <c r="B352" s="90"/>
+      <c r="B352" s="91"/>
       <c r="C352" s="80"/>
       <c r="D352" s="81"/>
       <c r="E352" s="82"/>
@@ -10427,9 +10449,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="358" ht="14.25" spans="1:9">
+    <row r="358" ht="15.15" spans="1:9">
       <c r="A358" s="78"/>
-      <c r="B358" s="90"/>
+      <c r="B358" s="91"/>
       <c r="C358" s="80"/>
       <c r="D358" s="81"/>
       <c r="E358" s="82"/>
@@ -10565,9 +10587,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="364" ht="14.25" spans="1:9">
+    <row r="364" ht="15.15" spans="1:9">
       <c r="A364" s="78"/>
-      <c r="B364" s="90"/>
+      <c r="B364" s="91"/>
       <c r="C364" s="80"/>
       <c r="D364" s="81"/>
       <c r="E364" s="82"/>
@@ -10703,9 +10725,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="370" ht="14.25" spans="1:9">
+    <row r="370" ht="15.15" spans="1:9">
       <c r="A370" s="78"/>
-      <c r="B370" s="90"/>
+      <c r="B370" s="91"/>
       <c r="C370" s="80"/>
       <c r="D370" s="81"/>
       <c r="E370" s="82"/>
@@ -10841,9 +10863,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="376" ht="14.25" spans="1:9">
+    <row r="376" ht="15.15" spans="1:9">
       <c r="A376" s="78"/>
-      <c r="B376" s="90"/>
+      <c r="B376" s="91"/>
       <c r="C376" s="80"/>
       <c r="D376" s="81"/>
       <c r="E376" s="82"/>
@@ -10979,9 +11001,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="382" ht="14.25" spans="1:9">
+    <row r="382" ht="15.15" spans="1:9">
       <c r="A382" s="78"/>
-      <c r="B382" s="90"/>
+      <c r="B382" s="91"/>
       <c r="C382" s="80"/>
       <c r="D382" s="81"/>
       <c r="E382" s="82"/>
@@ -11117,9 +11139,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="388" ht="14.25" spans="1:9">
+    <row r="388" ht="15.15" spans="1:9">
       <c r="A388" s="78"/>
-      <c r="B388" s="90"/>
+      <c r="B388" s="91"/>
       <c r="C388" s="80"/>
       <c r="D388" s="81"/>
       <c r="E388" s="82"/>
@@ -11255,9 +11277,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="394" ht="14.25" spans="1:9">
+    <row r="394" ht="15.15" spans="1:9">
       <c r="A394" s="78"/>
-      <c r="B394" s="90"/>
+      <c r="B394" s="91"/>
       <c r="C394" s="80"/>
       <c r="D394" s="81"/>
       <c r="E394" s="82"/>
@@ -11393,9 +11415,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="400" ht="14.25" spans="1:9">
+    <row r="400" ht="15.15" spans="1:9">
       <c r="A400" s="78"/>
-      <c r="B400" s="90"/>
+      <c r="B400" s="91"/>
       <c r="C400" s="80"/>
       <c r="D400" s="81"/>
       <c r="E400" s="82"/>
@@ -11531,9 +11553,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="406" ht="14.25" spans="1:9">
+    <row r="406" ht="15.15" spans="1:9">
       <c r="A406" s="78"/>
-      <c r="B406" s="90"/>
+      <c r="B406" s="91"/>
       <c r="C406" s="80"/>
       <c r="D406" s="81"/>
       <c r="E406" s="82"/>
@@ -11669,9 +11691,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="412" ht="14.25" spans="1:9">
+    <row r="412" ht="15.15" spans="1:9">
       <c r="A412" s="78"/>
-      <c r="B412" s="90"/>
+      <c r="B412" s="91"/>
       <c r="C412" s="80"/>
       <c r="D412" s="81"/>
       <c r="E412" s="82"/>
@@ -11807,9 +11829,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="418" ht="14.25" spans="1:9">
+    <row r="418" ht="15.15" spans="1:9">
       <c r="A418" s="78"/>
-      <c r="B418" s="90"/>
+      <c r="B418" s="91"/>
       <c r="C418" s="80"/>
       <c r="D418" s="81"/>
       <c r="E418" s="82"/>
@@ -11945,9 +11967,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="424" ht="14.25" spans="1:9">
+    <row r="424" ht="15.15" spans="1:9">
       <c r="A424" s="78"/>
-      <c r="B424" s="90"/>
+      <c r="B424" s="91"/>
       <c r="C424" s="80"/>
       <c r="D424" s="81"/>
       <c r="E424" s="82"/>
@@ -12083,9 +12105,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="430" ht="14.25" spans="1:9">
+    <row r="430" ht="15.15" spans="1:9">
       <c r="A430" s="78"/>
-      <c r="B430" s="90"/>
+      <c r="B430" s="91"/>
       <c r="C430" s="80"/>
       <c r="D430" s="81"/>
       <c r="E430" s="82"/>
@@ -12221,9 +12243,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="436" ht="14.25" spans="1:9">
+    <row r="436" ht="15.15" spans="1:9">
       <c r="A436" s="78"/>
-      <c r="B436" s="90"/>
+      <c r="B436" s="91"/>
       <c r="C436" s="80"/>
       <c r="D436" s="81"/>
       <c r="E436" s="82"/>
@@ -12359,9 +12381,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="442" ht="14.25" spans="1:9">
+    <row r="442" ht="15.15" spans="1:9">
       <c r="A442" s="78"/>
-      <c r="B442" s="90"/>
+      <c r="B442" s="91"/>
       <c r="C442" s="80"/>
       <c r="D442" s="81"/>
       <c r="E442" s="82"/>
@@ -12497,9 +12519,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="448" ht="14.25" spans="1:9">
+    <row r="448" ht="15.15" spans="1:9">
       <c r="A448" s="78"/>
-      <c r="B448" s="90"/>
+      <c r="B448" s="91"/>
       <c r="C448" s="80"/>
       <c r="D448" s="81"/>
       <c r="E448" s="82"/>
@@ -12635,9 +12657,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="454" ht="14.25" spans="1:9">
+    <row r="454" ht="15.15" spans="1:9">
       <c r="A454" s="78"/>
-      <c r="B454" s="90"/>
+      <c r="B454" s="91"/>
       <c r="C454" s="80"/>
       <c r="D454" s="81"/>
       <c r="E454" s="82"/>
@@ -12773,9 +12795,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="460" ht="14.25" spans="1:9">
+    <row r="460" ht="15.15" spans="1:9">
       <c r="A460" s="78"/>
-      <c r="B460" s="90"/>
+      <c r="B460" s="91"/>
       <c r="C460" s="80"/>
       <c r="D460" s="81"/>
       <c r="E460" s="82"/>
@@ -12911,9 +12933,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="466" ht="14.25" spans="1:9">
+    <row r="466" ht="15.15" spans="1:9">
       <c r="A466" s="78"/>
-      <c r="B466" s="90"/>
+      <c r="B466" s="91"/>
       <c r="C466" s="80"/>
       <c r="D466" s="81"/>
       <c r="E466" s="82"/>
@@ -13049,9 +13071,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="472" ht="14.25" spans="1:9">
+    <row r="472" ht="15.15" spans="1:9">
       <c r="A472" s="78"/>
-      <c r="B472" s="90"/>
+      <c r="B472" s="91"/>
       <c r="C472" s="80"/>
       <c r="D472" s="81"/>
       <c r="E472" s="82"/>
@@ -13187,9 +13209,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="478" ht="14.25" spans="1:9">
+    <row r="478" ht="15.15" spans="1:9">
       <c r="A478" s="78"/>
-      <c r="B478" s="90"/>
+      <c r="B478" s="91"/>
       <c r="C478" s="80"/>
       <c r="D478" s="81"/>
       <c r="E478" s="82"/>
@@ -13325,9 +13347,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="484" ht="14.25" spans="1:9">
+    <row r="484" ht="15.15" spans="1:9">
       <c r="A484" s="78"/>
-      <c r="B484" s="90"/>
+      <c r="B484" s="91"/>
       <c r="C484" s="80"/>
       <c r="D484" s="81"/>
       <c r="E484" s="82"/>
@@ -13463,9 +13485,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="490" ht="14.25" spans="1:9">
+    <row r="490" ht="15.15" spans="1:9">
       <c r="A490" s="78"/>
-      <c r="B490" s="90"/>
+      <c r="B490" s="91"/>
       <c r="C490" s="80"/>
       <c r="D490" s="81"/>
       <c r="E490" s="82"/>
@@ -13601,9 +13623,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="496" ht="14.25" spans="1:9">
+    <row r="496" ht="15.15" spans="1:9">
       <c r="A496" s="78"/>
-      <c r="B496" s="90"/>
+      <c r="B496" s="91"/>
       <c r="C496" s="80"/>
       <c r="D496" s="81"/>
       <c r="E496" s="82"/>
@@ -13739,9 +13761,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="502" ht="14.25" spans="1:9">
+    <row r="502" ht="15.15" spans="1:9">
       <c r="A502" s="78"/>
-      <c r="B502" s="90"/>
+      <c r="B502" s="91"/>
       <c r="C502" s="80"/>
       <c r="D502" s="81"/>
       <c r="E502" s="82"/>
@@ -13877,9 +13899,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="508" ht="14.25" spans="1:9">
+    <row r="508" ht="15.15" spans="1:9">
       <c r="A508" s="78"/>
-      <c r="B508" s="90"/>
+      <c r="B508" s="91"/>
       <c r="C508" s="80"/>
       <c r="D508" s="81"/>
       <c r="E508" s="82"/>
@@ -14015,9 +14037,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="514" ht="14.25" spans="1:9">
+    <row r="514" ht="15.15" spans="1:9">
       <c r="A514" s="78"/>
-      <c r="B514" s="90"/>
+      <c r="B514" s="91"/>
       <c r="C514" s="80"/>
       <c r="D514" s="81"/>
       <c r="E514" s="82"/>
@@ -14153,9 +14175,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="520" ht="14.25" spans="1:9">
+    <row r="520" ht="15.15" spans="1:9">
       <c r="A520" s="78"/>
-      <c r="B520" s="90"/>
+      <c r="B520" s="91"/>
       <c r="C520" s="80"/>
       <c r="D520" s="81"/>
       <c r="E520" s="82"/>
@@ -14291,9 +14313,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="526" ht="14.25" spans="1:9">
+    <row r="526" ht="15.15" spans="1:9">
       <c r="A526" s="78"/>
-      <c r="B526" s="90"/>
+      <c r="B526" s="91"/>
       <c r="C526" s="80"/>
       <c r="D526" s="81"/>
       <c r="E526" s="82"/>
@@ -14429,9 +14451,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="532" ht="14.25" spans="1:9">
+    <row r="532" ht="15.15" spans="1:9">
       <c r="A532" s="78"/>
-      <c r="B532" s="90"/>
+      <c r="B532" s="91"/>
       <c r="C532" s="80"/>
       <c r="D532" s="81"/>
       <c r="E532" s="82"/>
@@ -14567,9 +14589,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="538" ht="14.25" spans="1:9">
+    <row r="538" ht="15.15" spans="1:9">
       <c r="A538" s="78"/>
-      <c r="B538" s="90"/>
+      <c r="B538" s="91"/>
       <c r="C538" s="80"/>
       <c r="D538" s="81"/>
       <c r="E538" s="82"/>
@@ -14705,9 +14727,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="544" ht="14.25" spans="1:9">
+    <row r="544" ht="15.15" spans="1:9">
       <c r="A544" s="78"/>
-      <c r="B544" s="90"/>
+      <c r="B544" s="91"/>
       <c r="C544" s="80"/>
       <c r="D544" s="81"/>
       <c r="E544" s="82"/>
@@ -14843,9 +14865,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="550" ht="14.25" spans="1:9">
+    <row r="550" ht="15.15" spans="1:9">
       <c r="A550" s="78"/>
-      <c r="B550" s="90"/>
+      <c r="B550" s="91"/>
       <c r="C550" s="80"/>
       <c r="D550" s="81"/>
       <c r="E550" s="82"/>
@@ -14981,9 +15003,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="556" ht="14.25" spans="1:9">
+    <row r="556" ht="15.15" spans="1:9">
       <c r="A556" s="78"/>
-      <c r="B556" s="90"/>
+      <c r="B556" s="91"/>
       <c r="C556" s="80"/>
       <c r="D556" s="81"/>
       <c r="E556" s="82"/>
@@ -15119,9 +15141,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="562" ht="14.25" spans="1:9">
+    <row r="562" ht="15.15" spans="1:9">
       <c r="A562" s="78"/>
-      <c r="B562" s="90"/>
+      <c r="B562" s="91"/>
       <c r="C562" s="80"/>
       <c r="D562" s="81"/>
       <c r="E562" s="82"/>
@@ -15257,9 +15279,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="568" ht="14.25" spans="1:9">
+    <row r="568" ht="15.15" spans="1:9">
       <c r="A568" s="78"/>
-      <c r="B568" s="90"/>
+      <c r="B568" s="91"/>
       <c r="C568" s="80"/>
       <c r="D568" s="81"/>
       <c r="E568" s="82"/>
@@ -15395,9 +15417,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="574" ht="14.25" spans="1:9">
+    <row r="574" ht="15.15" spans="1:9">
       <c r="A574" s="78"/>
-      <c r="B574" s="90"/>
+      <c r="B574" s="91"/>
       <c r="C574" s="80"/>
       <c r="D574" s="81"/>
       <c r="E574" s="82"/>
@@ -15533,9 +15555,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="580" ht="14.25" spans="1:9">
+    <row r="580" ht="15.15" spans="1:9">
       <c r="A580" s="78"/>
-      <c r="B580" s="90"/>
+      <c r="B580" s="91"/>
       <c r="C580" s="80"/>
       <c r="D580" s="81"/>
       <c r="E580" s="82"/>
@@ -15671,9 +15693,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="586" ht="14.25" spans="1:9">
+    <row r="586" ht="15.15" spans="1:9">
       <c r="A586" s="78"/>
-      <c r="B586" s="90"/>
+      <c r="B586" s="91"/>
       <c r="C586" s="80"/>
       <c r="D586" s="81"/>
       <c r="E586" s="82"/>
@@ -15809,9 +15831,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="592" ht="14.25" spans="1:9">
+    <row r="592" ht="15.15" spans="1:9">
       <c r="A592" s="78"/>
-      <c r="B592" s="90"/>
+      <c r="B592" s="91"/>
       <c r="C592" s="80"/>
       <c r="D592" s="81"/>
       <c r="E592" s="82"/>
@@ -15947,9 +15969,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="598" ht="14.25" spans="1:9">
+    <row r="598" ht="15.15" spans="1:9">
       <c r="A598" s="78"/>
-      <c r="B598" s="90"/>
+      <c r="B598" s="91"/>
       <c r="C598" s="80"/>
       <c r="D598" s="81"/>
       <c r="E598" s="82"/>
@@ -16095,71 +16117,71 @@
   <dimension ref="A1:O300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.63333333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.62962962962963" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.8416666666667" customWidth="1"/>
-    <col min="2" max="2" width="11.4833333333333" style="14" customWidth="1"/>
-    <col min="3" max="3" width="11.4833333333333" customWidth="1"/>
-    <col min="4" max="4" width="22.4416666666667" style="29" customWidth="1"/>
-    <col min="5" max="5" width="24.5583333333333" style="29" customWidth="1"/>
+    <col min="1" max="1" width="12.8425925925926" customWidth="1"/>
+    <col min="2" max="2" width="11.4814814814815" style="14" customWidth="1"/>
+    <col min="3" max="3" width="11.4814814814815" customWidth="1"/>
+    <col min="4" max="4" width="22.4444444444444" style="29" customWidth="1"/>
+    <col min="5" max="5" width="24.5555555555556" style="29" customWidth="1"/>
     <col min="6" max="6" width="15" style="14" customWidth="1"/>
-    <col min="7" max="7" width="10.2666666666667" style="14" customWidth="1"/>
-    <col min="8" max="8" width="30.8916666666667" style="29" customWidth="1"/>
-    <col min="9" max="9" width="9.86666666666667" customWidth="1"/>
+    <col min="7" max="7" width="10.2685185185185" style="14" customWidth="1"/>
+    <col min="8" max="8" width="30.8888888888889" style="29" customWidth="1"/>
+    <col min="9" max="9" width="9.87037037037037" customWidth="1"/>
     <col min="10" max="10" width="13.9166666666667" customWidth="1"/>
-    <col min="11" max="11" width="17.975" customWidth="1"/>
+    <col min="11" max="11" width="17.9722222222222" customWidth="1"/>
     <col min="12" max="14" width="15" customWidth="1"/>
-    <col min="15" max="16384" width="9.73333333333333"/>
+    <col min="15" max="16384" width="9.73148148148148"/>
   </cols>
   <sheetData>
-    <row r="1" s="28" customFormat="1" ht="28.5" spans="1:15">
+    <row r="1" s="28" customFormat="1" ht="27.6" spans="1:15">
       <c r="A1" s="30" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J1" s="31" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K1" s="31" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L1" s="30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M1" s="30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N1" s="30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O1" s="30" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -16170,43 +16192,43 @@
         <v>43218</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G2" s="11">
         <v>76159025</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K2" s="10">
         <v>15895896159</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N2" s="10">
         <v>18915964188</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -16217,43 +16239,43 @@
         <v>43221</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G3" s="11">
         <v>76163331</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K3" s="10">
         <v>15895896159</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N3" s="11">
         <v>18502560789</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -16264,43 +16286,43 @@
         <v>43224</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G4" s="11">
         <v>76162062</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K4" s="10">
         <v>15895896159</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N4" s="10">
         <v>15950660573</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -16311,43 +16333,43 @@
         <v>43235</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G5" s="10">
         <v>76162983</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K5" s="10">
         <v>15895896159</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N5" s="10">
         <v>18652913602</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" s="14" customFormat="1" spans="1:15">
@@ -16358,43 +16380,43 @@
         <v>43250</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G6" s="10">
         <v>76175002</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K6" s="10">
         <v>15895896159</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N6" s="10">
         <v>15850562334</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -21422,15 +21444,15 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.63333333333333" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.62962962962963" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="8.63333333333333" style="14"/>
-    <col min="2" max="2" width="15.6333333333333" customWidth="1"/>
+    <col min="1" max="1" width="8.62962962962963" style="14"/>
+    <col min="2" max="2" width="15.6296296296296" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="43.5583333333333" style="15" customWidth="1"/>
-    <col min="5" max="5" width="13.5083333333333" customWidth="1"/>
+    <col min="4" max="4" width="43.5555555555556" style="15" customWidth="1"/>
+    <col min="5" max="5" width="13.5092592592593" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="11.3833333333333" customWidth="1"/>
+    <col min="7" max="7" width="11.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -21438,64 +21460,64 @@
         <v>3</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="18"/>
       <c r="B2" s="19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C2" s="20">
         <v>43248</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="22"/>
       <c r="B3" s="19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C3" s="20">
         <v>43250</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -21588,7 +21610,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" ht="14.25" spans="1:7">
+    <row r="14" ht="15.6" spans="1:7">
       <c r="A14" s="18"/>
       <c r="B14" s="24"/>
       <c r="C14" s="25"/>
@@ -21597,7 +21619,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="24"/>
     </row>
-    <row r="15" ht="14.25" spans="1:7">
+    <row r="15" ht="15.6" spans="1:7">
       <c r="A15" s="22"/>
       <c r="B15" s="24"/>
       <c r="C15" s="27"/>
@@ -21606,7 +21628,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" ht="14.25" spans="1:7">
+    <row r="16" ht="15.6" spans="1:7">
       <c r="A16" s="22"/>
       <c r="B16" s="19"/>
       <c r="C16" s="27"/>
@@ -21705,7 +21727,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" ht="14.25" spans="1:7">
+    <row r="27" ht="15.6" spans="1:7">
       <c r="A27" s="18"/>
       <c r="B27" s="24"/>
       <c r="C27" s="27"/>
@@ -21714,7 +21736,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="24"/>
     </row>
-    <row r="28" ht="14.25" spans="1:7">
+    <row r="28" ht="15.6" spans="1:7">
       <c r="A28" s="22"/>
       <c r="B28" s="19"/>
       <c r="C28" s="27"/>
@@ -21840,7 +21862,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" ht="14.25" spans="1:7">
+    <row r="42" ht="15.6" spans="1:7">
       <c r="A42" s="18"/>
       <c r="B42" s="19"/>
       <c r="C42" s="27"/>
@@ -21849,7 +21871,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="19"/>
     </row>
-    <row r="43" ht="14.25" spans="1:7">
+    <row r="43" ht="15.6" spans="1:7">
       <c r="A43" s="22"/>
       <c r="B43" s="19"/>
       <c r="C43" s="20"/>
@@ -21975,7 +21997,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" ht="14.25" spans="1:7">
+    <row r="57" ht="15.6" spans="1:7">
       <c r="A57" s="18"/>
       <c r="B57" s="19"/>
       <c r="C57" s="27"/>
@@ -21984,7 +22006,7 @@
       <c r="F57" s="1"/>
       <c r="G57" s="19"/>
     </row>
-    <row r="58" ht="14.25" spans="1:7">
+    <row r="58" ht="15.6" spans="1:7">
       <c r="A58" s="22"/>
       <c r="B58" s="19"/>
       <c r="C58" s="20"/>
@@ -21993,7 +22015,7 @@
       <c r="F58" s="1"/>
       <c r="G58" s="10"/>
     </row>
-    <row r="59" ht="14.25" spans="1:7">
+    <row r="59" ht="15.6" spans="1:7">
       <c r="A59" s="22"/>
       <c r="B59" s="19"/>
       <c r="C59" s="20"/>
@@ -22002,7 +22024,7 @@
       <c r="F59" s="1"/>
       <c r="G59" s="10"/>
     </row>
-    <row r="60" ht="14.25" spans="1:7">
+    <row r="60" ht="15.6" spans="1:7">
       <c r="A60" s="22"/>
       <c r="B60" s="19"/>
       <c r="C60" s="20"/>
@@ -22083,7 +22105,7 @@
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" ht="14.25" spans="1:7">
+    <row r="69" ht="15.6" spans="1:7">
       <c r="A69" s="18"/>
       <c r="B69" s="19"/>
       <c r="C69" s="27"/>
@@ -22092,7 +22114,7 @@
       <c r="F69" s="1"/>
       <c r="G69" s="19"/>
     </row>
-    <row r="70" ht="14.25" spans="1:7">
+    <row r="70" ht="15.6" spans="1:7">
       <c r="A70" s="22"/>
       <c r="B70" s="19"/>
       <c r="C70" s="20"/>
@@ -22101,7 +22123,7 @@
       <c r="F70" s="1"/>
       <c r="G70" s="10"/>
     </row>
-    <row r="71" ht="14.25" spans="1:7">
+    <row r="71" ht="15.6" spans="1:7">
       <c r="A71" s="22"/>
       <c r="B71" s="19"/>
       <c r="C71" s="20"/>
@@ -22110,7 +22132,7 @@
       <c r="F71" s="1"/>
       <c r="G71" s="10"/>
     </row>
-    <row r="72" ht="14.25" spans="1:7">
+    <row r="72" ht="15.6" spans="1:7">
       <c r="A72" s="22"/>
       <c r="B72" s="19"/>
       <c r="C72" s="20"/>
@@ -22191,7 +22213,7 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" ht="14.25" spans="1:7">
+    <row r="81" ht="15.6" spans="1:7">
       <c r="A81" s="22"/>
       <c r="B81" s="19"/>
       <c r="C81" s="20"/>
@@ -22200,7 +22222,7 @@
       <c r="F81" s="1"/>
       <c r="G81" s="10"/>
     </row>
-    <row r="82" ht="14.25" spans="1:7">
+    <row r="82" ht="15.6" spans="1:7">
       <c r="A82" s="22"/>
       <c r="B82" s="19"/>
       <c r="C82" s="20"/>
@@ -22312,95 +22334,119 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="15.1333333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1296296296296" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
     <col min="4" max="4" width="48.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.9916666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.9907407407407" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="15.15" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C2" s="9">
         <v>43204</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C3" s="9">
         <v>43221</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C4" s="12">
         <v>43246</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="13"/>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="13"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="12">
+        <v>43253</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="12">
+        <v>43254</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="10"/>
@@ -22434,7 +22480,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E4 E5:E6 E7:E1048576">
       <formula1>"薪资补贴,调休,未调休"</formula1>
     </dataValidation>
   </dataValidations>
